--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F8" s="3">
         <v>52700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>50600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>39900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>33700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>26700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>17500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>32200</v>
+      </c>
+      <c r="F9" s="3">
         <v>30100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>27800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>17700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>14000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>12400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E10" s="3">
         <v>22600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G10" s="3">
         <v>22900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>19700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>14000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F17" s="3">
         <v>31500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>29400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>18600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F18" s="3">
         <v>21200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>21200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>21300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>19700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>13500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1176,54 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>18100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-29600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,60 +1304,72 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F23" s="3">
         <v>18200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>19200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>39300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>11400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1292,17 +1383,23 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F26" s="3">
         <v>18200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>19200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>39300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>19000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>11400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F27" s="3">
         <v>18200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>19200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>39300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-18100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>29600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F33" s="3">
         <v>18200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>19200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>39300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F35" s="3">
         <v>18200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>19200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>39300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F41" s="3">
         <v>71600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>101000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>80600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>15300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>152700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>141000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>122700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>140900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>38500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +2049,58 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F43" s="3">
         <v>29100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>12300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>49400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>170500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,13 +2137,19 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1970,22 +2167,28 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,46 +2225,58 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2512600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2550600</v>
+      </c>
+      <c r="F47" s="3">
         <v>2534600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2441300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1844000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1743400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1361500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1077200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>918400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>834500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>485200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>419400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F52" s="3">
         <v>89900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>31800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>17900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>22000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>43600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2604300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2645600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2727500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2589800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1995900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1791000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1564800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1233200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1061100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>988300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>528800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>613400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,46 +2701,58 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>49100</v>
+      </c>
+      <c r="F59" s="3">
         <v>48200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>59900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>58900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>153200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>80100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>30900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>33600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>25600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>30400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,46 +2789,58 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1654900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1574600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1657600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1505100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>914900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>634900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>597300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>446500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>389400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>451000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>76300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1711600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1627200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1709200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1568600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>976100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>789400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>680900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>478600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>426700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>481300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>109000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-17400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>892800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1018400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1018200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1021200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1019800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1001600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>884000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>754600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>634500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>507000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>506900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>504500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F81" s="3">
         <v>18200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>19200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>39300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-102100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>39800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-197100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-326800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-216400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-155100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-75900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-339000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-69000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-222300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="F100" s="3">
         <v>131600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>258600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>169700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>266000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>173900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>57400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>441200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>86600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>74800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="F102" s="3">
         <v>29100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>34300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>61400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-157200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>49500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>102400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>18100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-147800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E8" s="3">
         <v>51500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>52700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E9" s="3">
         <v>27600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E10" s="3">
         <v>23900</v>
-      </c>
-      <c r="E10" s="3">
-        <v>22600</v>
       </c>
       <c r="F10" s="3">
         <v>22600</v>
       </c>
       <c r="G10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="H10" s="3">
         <v>22900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E17" s="3">
         <v>29000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E18" s="3">
         <v>22500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>21200</v>
       </c>
       <c r="G18" s="3">
         <v>21200</v>
       </c>
       <c r="H18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I18" s="3">
         <v>21300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-127000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-29600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,69 +1350,75 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-104400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1389,8 +1435,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-104400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>39300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-104400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>127000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>29600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-104400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-104400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E41" s="3">
         <v>55800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>152700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>141000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>122700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>140900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E43" s="3">
         <v>13000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>170500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,16 +2239,19 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2173,22 +2272,25 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,52 +2333,58 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2495300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2512600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2550600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2534600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2441300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1844000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1743400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1361500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1077200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>918400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>834500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>485200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>419400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E52" s="3">
         <v>22600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>89900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2610000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2604300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2645600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2727500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2589800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1995900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1791000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1564800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1233200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1061100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>988300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>528800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>613400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1100</v>
       </c>
       <c r="M57" s="3">
         <v>1100</v>
       </c>
       <c r="N57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2841,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E59" s="3">
         <v>53900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>153200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +2935,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1542300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1654900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1574600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1657600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1505100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>914900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>634900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>597300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>446500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>389400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>451000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>76300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1589100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1711600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1627200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1709200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1568600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>976100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>789400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>680900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>478600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>426700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>481300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>109000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-145600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-600</v>
       </c>
       <c r="O72" s="3">
         <v>-600</v>
       </c>
       <c r="P72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E76" s="3">
         <v>892800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1018400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1018200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1021200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1019800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1001600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>884000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>754600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>634500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>507000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>506900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>504500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-104400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-51400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-102100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-197100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-326800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-216400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-155100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-75900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-339000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-69000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-222300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,28 +4381,29 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-21200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-21200</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-21200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-21200</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-17800</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-21100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>57900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-106700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>131600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>258600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>169700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>266000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>173900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>57400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>441200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>86600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>74800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-89200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>34300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-157200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>102400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-147800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E8" s="3">
         <v>47900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>50600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E9" s="3">
         <v>26600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E10" s="3">
         <v>21300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>22600</v>
       </c>
       <c r="G10" s="3">
         <v>22600</v>
       </c>
       <c r="H10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I10" s="3">
         <v>22900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E17" s="3">
         <v>27800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E18" s="3">
         <v>20100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>21200</v>
       </c>
       <c r="H18" s="3">
         <v>21200</v>
       </c>
       <c r="I18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J18" s="3">
         <v>21300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-127000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-29600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E23" s="3">
         <v>21800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-104400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1411,17 +1457,17 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1438,8 +1484,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E26" s="3">
         <v>21800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-104400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E27" s="3">
         <v>21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-104400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>127000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>29600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E33" s="3">
         <v>21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-104400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E35" s="3">
         <v>21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-104400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E41" s="3">
         <v>76700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>71600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>101000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>80600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>152700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>141000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>122700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>140900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>38500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E43" s="3">
         <v>6700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>170500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,8 +2352,8 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2275,22 +2374,25 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,55 +2438,61 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2479900</v>
+      </c>
+      <c r="E47" s="3">
         <v>2495300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2512600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2550600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2534600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2441300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1844000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1743400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1361500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1077200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>918400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>834500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>485200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>419400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E52" s="3">
         <v>29800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>89900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2621100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2610000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2604300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2645600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2727500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2589800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1995900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1791000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1564800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1233200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1061100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>988300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>528800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>613400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>1100</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,55 +2978,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E59" s="3">
         <v>42900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>153200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,55 +3078,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1513900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1542300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1654900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1574600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1657600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1505100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>914900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>634900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>597300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>446500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>389400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>451000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>76300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1570700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1589100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1711600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1627200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1709200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1568600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>976100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>789400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>680900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>478600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>426700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>481300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>109000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-145800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-145600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-600</v>
       </c>
       <c r="P72" s="3">
         <v>-600</v>
       </c>
       <c r="Q72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1050500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1021000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>892800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1018400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1018200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1021200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1019800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1001600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>884000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>754600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>634500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>507000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>506900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>504500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E81" s="3">
         <v>21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-104400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E89" s="3">
         <v>32200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-51400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-102100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-197100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-326800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-216400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-155100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-75900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-339000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-69000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-222300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,13 +4615,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="E96" s="3">
         <v>-21200</v>
@@ -4400,14 +4634,14 @@
         <v>-21200</v>
       </c>
       <c r="H96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-17800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>57900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-106700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>131600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>258600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>169700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>266000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>173900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>57400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>441200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>86600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>74800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4626,89 +4875,95 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E102" s="3">
         <v>28400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-89200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>29100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-157200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>102400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-147800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E8" s="3">
         <v>46800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>54800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>50600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E9" s="3">
         <v>23600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E10" s="3">
         <v>23200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>22600</v>
       </c>
       <c r="H10" s="3">
         <v>22600</v>
       </c>
       <c r="I10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J10" s="3">
         <v>22900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E17" s="3">
         <v>25400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E18" s="3">
         <v>21400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>21200</v>
       </c>
       <c r="I18" s="3">
         <v>21200</v>
       </c>
       <c r="J18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K18" s="3">
         <v>21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E20" s="3">
         <v>30000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-127000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,63 +1435,69 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E23" s="3">
         <v>51500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-104400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>200</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1460,17 +1505,17 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1487,8 +1532,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E26" s="3">
         <v>51500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-104400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E27" s="3">
         <v>51500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-104400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-30000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>127000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E33" s="3">
         <v>51500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-104400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E35" s="3">
         <v>51500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-104400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E41" s="3">
         <v>45000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>71600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>101000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>80600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>152700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>141000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>122700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>140900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>38500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E43" s="3">
         <v>10200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>170500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,19 +2436,22 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2377,22 +2475,25 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,58 +2542,64 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2500200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2479900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2495300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2512600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2550600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2534600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2441300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1844000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1743400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1361500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1077200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>918400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>834500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>485200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>419400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E52" s="3">
         <v>82400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>89900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2603500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2621100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2610000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2604300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2645600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2727500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2589800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1995900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1791000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1564800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1233200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1061100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>988300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>528800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>613400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1100</v>
       </c>
       <c r="O57" s="3">
         <v>1100</v>
       </c>
       <c r="P57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,58 +3114,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E59" s="3">
         <v>46100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>153200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,58 +3220,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1458400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1513900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1542300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1654900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1574600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1657600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1505100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>914900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>634900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>597300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>446500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>389400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>451000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>76300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1535500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1570700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1589100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1711600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1627200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1709200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1568600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>976100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>789400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>680900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>478600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>426700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>481300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>109000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-116300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-145800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-145600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-600</v>
       </c>
       <c r="Q72" s="3">
         <v>-600</v>
       </c>
       <c r="R72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1050500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1021000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>892800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1018400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1018200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1021200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1019800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1001600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>884000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>754600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>634500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>507000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>506900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>504500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E81" s="3">
         <v>51500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-104400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E89" s="3">
         <v>72800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-51400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-102100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-197100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-326800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-216400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-155100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-75900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-339000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-222300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,7 +4858,7 @@
         <v>-22000</v>
       </c>
       <c r="E96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="F96" s="3">
         <v>-21200</v>
@@ -4637,14 +4870,14 @@
         <v>-21200</v>
       </c>
       <c r="I96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-17800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-52000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>57900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-106700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>131600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>258600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>169700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>266000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>173900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>57400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>441200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>86600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>74800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
+        <v>200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E102" s="3">
         <v>21000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-89200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>29100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>61400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-157200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>102400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-147800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E8" s="3">
         <v>48300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>54800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>50600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E9" s="3">
         <v>24500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E10" s="3">
         <v>23800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>22600</v>
       </c>
       <c r="I10" s="3">
         <v>22600</v>
       </c>
       <c r="J10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K10" s="3">
         <v>22900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E17" s="3">
         <v>26200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>22100</v>
       </c>
       <c r="E18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F18" s="3">
         <v>21400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>21200</v>
       </c>
       <c r="J18" s="3">
         <v>21200</v>
       </c>
       <c r="K18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="L18" s="3">
         <v>21300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E20" s="3">
         <v>17600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>30000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-127000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-29600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,69 +1478,75 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E23" s="3">
         <v>39700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-104400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
@@ -1508,17 +1554,17 @@
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1535,8 +1581,8 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>8</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E26" s="3">
         <v>39500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>51500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-104400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E27" s="3">
         <v>39500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>51500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-104400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-17600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-30000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>127000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>29600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E33" s="3">
         <v>39500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-104400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E35" s="3">
         <v>39500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-104400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E41" s="3">
         <v>54700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>71600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>101000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>152700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>141000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>122700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>140900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E43" s="3">
         <v>13500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>170500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2478,22 +2577,25 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,61 +2647,67 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2351800</v>
+      </c>
+      <c r="E47" s="3">
         <v>2500200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2479900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2495300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2512600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2550600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2534600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2441300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1844000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1743400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1361500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1077200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>918400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>834500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>485200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>419400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E52" s="3">
         <v>30200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>82400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>89900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2491300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2603500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2621100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2610000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2604300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2645600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2727500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2589800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1995900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1791000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1564800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1233200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1061100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>988300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>528800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>613400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1100</v>
       </c>
       <c r="P57" s="3">
         <v>1100</v>
       </c>
       <c r="Q57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E59" s="3">
         <v>51300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>153200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,61 +3363,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1341900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1458400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1513900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1542300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1654900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1574600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1657600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1505100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>914900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>634900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>597300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>446500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>389400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>451000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>76300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1413500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1535500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1570700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1589100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1711600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1627200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1709200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1568600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>976100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>789400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>680900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>478600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>426700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>481300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>109000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-98500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-145800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-600</v>
       </c>
       <c r="R72" s="3">
         <v>-600</v>
       </c>
       <c r="S72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1077800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1068000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1050500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1021000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>892800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1018400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1018200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1021200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1019800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1001600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>884000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>754600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>634500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>507000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>506900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>504500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E81" s="3">
         <v>39500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-104400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E89" s="3">
         <v>35800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>72800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-51400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-102100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-197100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-326800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-216400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-155100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-75900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-339000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-69000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-222300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,7 +5095,7 @@
         <v>-22000</v>
       </c>
       <c r="F96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="G96" s="3">
         <v>-21200</v>
@@ -4873,14 +5107,14 @@
         <v>-21200</v>
       </c>
       <c r="J96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-17800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-78500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-52000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>57900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-106700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>131600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>258600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>169700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>266000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>173900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>57400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>441200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>86600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>74800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
-      </c>
-      <c r="E101" s="3">
-        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
+        <v>200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
       <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>29100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-157200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>102400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-147800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E8" s="3">
         <v>49800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>46800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>54800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E9" s="3">
         <v>26100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E10" s="3">
         <v>23700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>22600</v>
       </c>
       <c r="J10" s="3">
         <v>22600</v>
       </c>
       <c r="K10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="L10" s="3">
         <v>22900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E17" s="3">
         <v>27700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="E18" s="3">
         <v>22100</v>
       </c>
       <c r="F18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="G18" s="3">
         <v>21400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>21200</v>
       </c>
       <c r="K18" s="3">
         <v>21200</v>
       </c>
       <c r="L18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="M18" s="3">
         <v>21300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1346,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E20" s="3">
         <v>9600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>17600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>30000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-127000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-29600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,75 +1521,81 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E23" s="3">
         <v>31800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-104400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1557,17 +1603,17 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1584,8 +1630,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E26" s="3">
         <v>31800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>39500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>51500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-104400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E27" s="3">
         <v>31800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>39500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-104400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-17600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-30000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>127000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>29600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E33" s="3">
         <v>31800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>39500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-104400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E35" s="3">
         <v>31800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>39500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-104400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E41" s="3">
         <v>37700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>152700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>141000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>122700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>140900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>38500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E43" s="3">
         <v>20900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>49400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2500</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>170500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,28 +2634,31 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2580,22 +2679,25 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,64 +2752,70 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2339700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2351800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2500200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2479900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2495300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2512600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2550600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2534600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2441300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1844000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1743400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1361500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1077200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>918400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>834500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>485200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>419400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E52" s="3">
         <v>77700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>34700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>89900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2449300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2491300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2603500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2621100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2610000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2604300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2645600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2727500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2589800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1995900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1791000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1564800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1233200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1061100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>988300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>528800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>613400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1100</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
       </c>
       <c r="R57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3388,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E59" s="3">
         <v>48700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>153200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,64 +3506,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1341900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1458400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1513900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1542300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1654900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1574600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1657600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1505100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>914900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>634900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>597300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>446500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>389400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>451000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>76300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1351000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1413500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1535500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1570700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1589100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1711600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1627200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1709200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1568600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>976100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>789400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>680900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>478600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>426700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>481300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>109000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-88700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-98500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-145600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-600</v>
       </c>
       <c r="S72" s="3">
         <v>-600</v>
       </c>
       <c r="T72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1098300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1077800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1068000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1050500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1021000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>892800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1018400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1018200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1021200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1019800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1001600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>884000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>754600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>634500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>507000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>506900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>504500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E81" s="3">
         <v>31800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>39500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-104400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E89" s="3">
         <v>174800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>72800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-51400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-102100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-197100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-326800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-216400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-155100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-339000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-69000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-222300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5098,7 +5332,7 @@
         <v>-22000</v>
       </c>
       <c r="G96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="H96" s="3">
         <v>-21200</v>
@@ -5110,14 +5344,14 @@
         <v>-21200</v>
       </c>
       <c r="K96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-17800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-138900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-78500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-52000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>57900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-106700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>131600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>258600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>169700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>266000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>173900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>57400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>441200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>86600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>74800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
       <c r="O101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E102" s="3">
         <v>32700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-89200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>29100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-157200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>102400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-147800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,211 +665,221 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E8" s="3">
         <v>46500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>46800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>47900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>54800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E9" s="3">
         <v>23200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,58 +887,61 @@
         <v>23300</v>
       </c>
       <c r="E10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F10" s="3">
         <v>23700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>22600</v>
       </c>
       <c r="K10" s="3">
         <v>22600</v>
       </c>
       <c r="L10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="M10" s="3">
         <v>22900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E17" s="3">
         <v>24600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E18" s="3">
         <v>21900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>22100</v>
       </c>
       <c r="F18" s="3">
         <v>22100</v>
       </c>
       <c r="G18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H18" s="3">
         <v>21400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>21200</v>
       </c>
       <c r="L18" s="3">
         <v>21200</v>
       </c>
       <c r="M18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="N18" s="3">
         <v>21300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,67 +1380,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>20500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>17600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>30000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-127000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-29600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E23" s="3">
         <v>42400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>31800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>51500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-104400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,11 +1640,11 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
@@ -1606,17 +1652,17 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1633,8 +1679,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E26" s="3">
         <v>42400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>31800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>39500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>51500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-104400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E27" s="3">
         <v>42400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>31800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>51500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-104400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-17600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-30000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>127000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>29600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E33" s="3">
         <v>42400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-104400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E35" s="3">
         <v>42400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-104400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E41" s="3">
         <v>31600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>80600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>152700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>141000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>122700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>140900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>38500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E43" s="3">
         <v>15700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2500</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>170500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,16 +2733,19 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2660,8 +2759,8 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2682,22 +2781,25 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,67 +2857,73 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2381700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2339700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2351800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2500200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2479900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2495300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2512600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2550600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2534600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2441300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1844000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1743400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1361500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1077200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>918400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>834500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>485200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>419400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E52" s="3">
         <v>58100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>77700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>82400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>34700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>89900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2498700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2449300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2491300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2603500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2621100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2610000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2604300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2645600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2727500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2589800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1995900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1791000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1564800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1233200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1061100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>988300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>528800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>613400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1100</v>
       </c>
       <c r="R57" s="3">
         <v>1100</v>
       </c>
       <c r="S57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,67 +3525,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E59" s="3">
         <v>40200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>153200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,67 +3649,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1346200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1306000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1341900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1458400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1513900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1542300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1654900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1574600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1657600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1505100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>914900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>634900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>597300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>446500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>389400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>451000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>76300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1351000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1413500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1535500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1570700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1589100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1711600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1627200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1709200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1568600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>976100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>789400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>680900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>478600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>426700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>481300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>109000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-88700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-98500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-116300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-145800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-145600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-600</v>
       </c>
       <c r="T72" s="3">
         <v>-600</v>
       </c>
       <c r="U72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1099700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1098300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1077800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1068000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1050500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1021000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>892800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1018400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1018200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1021200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1019800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1001600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>884000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>754600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>634500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>507000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>506900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>504500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E81" s="3">
         <v>42400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-104400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>31400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>174800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>72800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-51400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-102100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-197100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-326800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-216400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-155100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-75900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-339000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-69000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-222300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5335,7 +5569,7 @@
         <v>-22000</v>
       </c>
       <c r="H96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="I96" s="3">
         <v>-21200</v>
@@ -5347,14 +5581,14 @@
         <v>-21200</v>
       </c>
       <c r="L96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="M96" s="3">
         <v>-17800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-58500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-138900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-78500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>57900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>131600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>258600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>169700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>266000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>173900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>57400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>441200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>86600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>74800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
       </c>
       <c r="I101" s="3">
+        <v>200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-100</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
       <c r="P101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-42200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-89200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-157200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>102400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-147800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E8" s="3">
         <v>49500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>49800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>46800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>47900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E9" s="3">
         <v>26200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="E10" s="3">
         <v>23300</v>
       </c>
       <c r="F10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G10" s="3">
         <v>23700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>22600</v>
       </c>
       <c r="L10" s="3">
         <v>22600</v>
       </c>
       <c r="M10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="N10" s="3">
         <v>22900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E17" s="3">
         <v>27800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E18" s="3">
         <v>21700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>22100</v>
       </c>
       <c r="G18" s="3">
         <v>22100</v>
       </c>
       <c r="H18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="I18" s="3">
         <v>21400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>21200</v>
       </c>
       <c r="M18" s="3">
         <v>21200</v>
       </c>
       <c r="N18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="O18" s="3">
         <v>21300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>17600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>30000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-127000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-29600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,75 +1606,81 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E23" s="3">
         <v>23300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>31800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>51500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-104400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>100</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1643,11 +1688,11 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
@@ -1655,17 +1700,17 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1682,8 +1727,8 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>8</v>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E26" s="3">
         <v>23300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>39500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>51500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-104400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E27" s="3">
         <v>23300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>51500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-104400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-20500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-17600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-30000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>127000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>29600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E33" s="3">
         <v>23300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>51500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-104400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E35" s="3">
         <v>23300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>51500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-104400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E41" s="3">
         <v>35100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>80600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>152700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>141000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>122700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>140900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E43" s="3">
         <v>18300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>49400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2500</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>170500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,19 +2831,22 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2762,8 +2860,8 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2784,22 +2882,25 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,70 +2961,76 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2313700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2381700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2339700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2351800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2500200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2479900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2495300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2512600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2550600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2534600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2441300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1844000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1743400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1361500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1077200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>918400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>834500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>485200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>419400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E52" s="3">
         <v>58700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>58100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>77700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>82400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>89900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2571200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2498700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2449300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2491300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2603500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2621100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2610000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2604300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2645600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2727500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2589800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1995900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1791000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1564800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1233200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1061100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>988300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>528800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>613400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1100</v>
       </c>
       <c r="S57" s="3">
         <v>1100</v>
       </c>
       <c r="T57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,70 +3661,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E59" s="3">
         <v>49100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>153200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,70 +3791,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1415000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1346200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1306000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1341900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1458400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1513900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1542300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1654900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1574600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1657600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1505100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>914900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>634900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>597300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>446500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>389400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>451000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>76300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1471200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1399000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1351000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1413500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1535500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1570700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1589100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1711600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1627200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1709200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1568600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>976100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>789400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>680900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>478600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>426700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>481300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>109000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-66800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-88700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-98500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-145800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-145600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-600</v>
       </c>
       <c r="U72" s="3">
         <v>-600</v>
       </c>
       <c r="V72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1099700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1098300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1077800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1068000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1050500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1021000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>892800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1018400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1018200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1021200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1019800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1001600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>884000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>754600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>634500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>507000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>506900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>504500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E81" s="3">
         <v>23300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>51500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-104400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>174800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>72800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-51400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-102100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-197100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-326800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-216400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-155100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-75900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-339000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-69000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-222300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5572,7 +5805,7 @@
         <v>-22000</v>
       </c>
       <c r="I96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="J96" s="3">
         <v>-21200</v>
@@ -5584,14 +5817,14 @@
         <v>-21200</v>
       </c>
       <c r="M96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="N96" s="3">
         <v>-17800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E100" s="3">
         <v>15100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-58500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-138900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-78500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>57900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>131600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>258600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>169700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>266000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>173900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>57400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>441200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>86600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>74800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>200</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
       </c>
       <c r="J101" s="3">
+        <v>200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-100</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
       <c r="Q101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E102" s="3">
         <v>4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>61400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-157200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>49500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>102400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-147800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E8" s="3">
         <v>51500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>46500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>54800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>52700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E9" s="3">
         <v>28300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E10" s="3">
         <v>23200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>23300</v>
       </c>
       <c r="F10" s="3">
         <v>23300</v>
       </c>
       <c r="G10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H10" s="3">
         <v>23700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>22600</v>
       </c>
       <c r="M10" s="3">
         <v>22600</v>
       </c>
       <c r="N10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="O10" s="3">
         <v>22900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E17" s="3">
         <v>29500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E18" s="3">
         <v>22000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>22100</v>
       </c>
       <c r="H18" s="3">
         <v>22100</v>
       </c>
       <c r="I18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J18" s="3">
         <v>21400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>21200</v>
       </c>
       <c r="N18" s="3">
         <v>21200</v>
       </c>
       <c r="O18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="P18" s="3">
         <v>21300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>20500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>17600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>30000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-127000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,81 +1649,87 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E23" s="3">
         <v>22400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>31800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-104400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
@@ -1691,11 +1737,11 @@
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
@@ -1703,17 +1749,17 @@
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1730,8 +1776,8 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>8</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E26" s="3">
         <v>22300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>42400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>39500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>51500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-104400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E27" s="3">
         <v>22300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>51500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-104400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-20500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-17600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-30000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>127000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>29600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E33" s="3">
         <v>22300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>51500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-104400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E35" s="3">
         <v>22300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>51500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-104400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E41" s="3">
         <v>117400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>80600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>152700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>141000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>122700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>140900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>38500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E43" s="3">
         <v>48700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2500</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>170500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,22 +2930,25 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2863,8 +2962,8 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2885,22 +2984,25 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,73 +3066,79 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2182400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2313700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2381700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2339700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2351800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2500200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2479900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2495300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2512600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2550600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2534600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2441300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1844000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1743400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1361500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1077200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>918400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>834500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>485200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>419400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E52" s="3">
         <v>88300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>58700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>77700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>82400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>89900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2310600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2571200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2498700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2449300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2491300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2603500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2621100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2610000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2604300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2645600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2727500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2589800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1995900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1791000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1564800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1233200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1061100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>988300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>528800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>613400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1100</v>
       </c>
       <c r="T57" s="3">
         <v>1100</v>
       </c>
       <c r="U57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,73 +3798,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105900</v>
+      </c>
+      <c r="E59" s="3">
         <v>50100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>153200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>80100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>25600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,73 +3934,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1090700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1415000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1346200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1306000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1341900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1458400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1513900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1542300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1654900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1574600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1657600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1505100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>914900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>634900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>597300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>446500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>389400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>451000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>76300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1198900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1471200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1399000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1351000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1413500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1535500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1570700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1589100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1711600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1627200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1709200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1568600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>976100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>789400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>680900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>478600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>426700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>481300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>109000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-66800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-88700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-98500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-145800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-145600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-600</v>
       </c>
       <c r="V72" s="3">
         <v>-600</v>
       </c>
       <c r="W72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1111700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1099700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1098300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1077800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1068000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1050500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1021000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>892800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1018400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1018200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1021200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1019800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1001600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>884000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>754600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>634500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>507000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>506900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>504500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E81" s="3">
         <v>22300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>51500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-104400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="E89" s="3">
         <v>69100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>174800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>72800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-51400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-102100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-197100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-326800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-216400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-155100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-75900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-339000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-69000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-222300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5808,7 +6042,7 @@
         <v>-22000</v>
       </c>
       <c r="J96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="K96" s="3">
         <v>-21200</v>
@@ -5820,14 +6054,14 @@
         <v>-21200</v>
       </c>
       <c r="N96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="O96" s="3">
         <v>-17800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>43700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-58500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-138900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-78500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>57900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-106700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>131600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>258600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>169700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>266000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>173900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>57400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>441200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>86600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>74800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>200</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
       </c>
       <c r="K101" s="3">
+        <v>200</v>
+      </c>
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-100</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
       <c r="R101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="E102" s="3">
         <v>110700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-42200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-89200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>61400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-157200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>102400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-147800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E8" s="3">
         <v>46000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>49500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>46500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>49800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>54800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>50600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E9" s="3">
         <v>22700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E10" s="3">
         <v>23300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>23300</v>
       </c>
       <c r="G10" s="3">
         <v>23300</v>
       </c>
       <c r="H10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="I10" s="3">
         <v>23700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>22600</v>
       </c>
       <c r="N10" s="3">
         <v>22600</v>
       </c>
       <c r="O10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="P10" s="3">
         <v>22900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E17" s="3">
         <v>24300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E18" s="3">
         <v>21700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>22100</v>
       </c>
       <c r="I18" s="3">
         <v>22100</v>
       </c>
       <c r="J18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K18" s="3">
         <v>21400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>21200</v>
       </c>
       <c r="O18" s="3">
         <v>21200</v>
       </c>
       <c r="P18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>21300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>20500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>17600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-127000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-29600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,87 +1692,93 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E23" s="3">
         <v>33700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>42400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>31800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-104400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1740,11 +1786,11 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
@@ -1752,17 +1798,17 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1779,8 +1825,8 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>8</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E26" s="3">
         <v>33700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>42400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>51500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-104400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E27" s="3">
         <v>33700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-104400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-20500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-17600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>127000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>29600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E33" s="3">
         <v>33700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>42400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-104400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E35" s="3">
         <v>33700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>42400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-104400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E41" s="3">
         <v>80800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>45000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>80600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>152700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>141000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>122700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>140900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>38500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E43" s="3">
         <v>10700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>49400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2500</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>170500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,25 +3029,28 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2965,8 +3064,8 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2987,22 +3086,25 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,76 +3171,82 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2329900</v>
+      </c>
+      <c r="E47" s="3">
         <v>2182400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2313700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2381700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2339700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2351800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2500200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2479900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2495300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2512600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2550600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2534600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2441300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1844000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1743400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1361500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1077200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>918400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>834500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>485200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>419400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E52" s="3">
         <v>36100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>88300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>58100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>77700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>82400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>89900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>43600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2426000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2310600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2571200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2498700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2449300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2491300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2603500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2621100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2610000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2604300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2645600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2727500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2589800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1995900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1791000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1564800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1233200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1061100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>988300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>528800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>613400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1100</v>
       </c>
       <c r="U57" s="3">
         <v>1100</v>
       </c>
       <c r="V57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,76 +3935,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E59" s="3">
         <v>105900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>153200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>80100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>25600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>30400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,76 +4077,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1244300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1090700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1415000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1346200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1306000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1341900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1458400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1513900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1542300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1654900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1574600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1657600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1505100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>914900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>634900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>597300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>446500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>389400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>451000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>76300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1198900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1471200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1399000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1351000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1413500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1535500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1570700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1589100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1711600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1627200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1709200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1568600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>976100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>789400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>680900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>478600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>426700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>481300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>109000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-66800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-88700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-98500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-116300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-145800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-145600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-600</v>
       </c>
       <c r="W72" s="3">
         <v>-600</v>
       </c>
       <c r="X72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1111700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1099700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1098300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1077800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1068000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1050500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1021000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>892800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1018400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1018200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1021200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1019800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1001600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>884000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>754600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>634500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>507000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>506900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>504500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E81" s="3">
         <v>33700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>42400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-104400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-178400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-101800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>69100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>174800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-51400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-102100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-197100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-326800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-216400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-155100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-75900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-339000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-69000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-222300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6045,7 +6279,7 @@
         <v>-22000</v>
       </c>
       <c r="K96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="L96" s="3">
         <v>-21200</v>
@@ -6057,14 +6291,14 @@
         <v>-21200</v>
       </c>
       <c r="O96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="P96" s="3">
         <v>-17800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E100" s="3">
         <v>14900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>43700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-58500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-138900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-78500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>57900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-106700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>131600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>258600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>169700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>266000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>173900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>57400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>441200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>86600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>74800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>200</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
       </c>
       <c r="L101" s="3">
+        <v>200</v>
+      </c>
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-100</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
       <c r="S101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-88700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>110700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-42200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-89200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>29100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>61400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-157200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>102400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-147800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E8" s="3">
         <v>52400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>46500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>49800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>54800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>50600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E9" s="3">
         <v>24000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E10" s="3">
         <v>28400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>23300</v>
       </c>
       <c r="H10" s="3">
         <v>23300</v>
       </c>
       <c r="I10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J10" s="3">
         <v>23700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23900</v>
-      </c>
-      <c r="N10" s="3">
-        <v>22600</v>
       </c>
       <c r="O10" s="3">
         <v>22600</v>
       </c>
       <c r="P10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>22900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E17" s="3">
         <v>25600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E18" s="3">
         <v>26800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>22100</v>
       </c>
       <c r="J18" s="3">
         <v>22100</v>
       </c>
       <c r="K18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="L18" s="3">
         <v>21400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>21200</v>
       </c>
       <c r="P18" s="3">
         <v>21200</v>
       </c>
       <c r="Q18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="R18" s="3">
         <v>21300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1515,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>20500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>17600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-127000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-29600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>17200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>42400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>31800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-104400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1777,41 +1823,41 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1828,8 +1874,8 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>8</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>17200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-104400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>17200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-104400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>9500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-20500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-17600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>127000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>29600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>17200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-104400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>17200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-104400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E41" s="3">
         <v>43000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>117400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>71600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>101000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>80600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>152700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>141000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>122700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>140900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>38500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E43" s="3">
         <v>24700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>49400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2500</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>170500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,29 +3128,32 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3067,8 +3166,8 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3089,22 +3188,25 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,79 +3276,85 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2334300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2329900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2182400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2313700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2381700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2339700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2351800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2500200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2479900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2495300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2512600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2550600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2534600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2441300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1844000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1743400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1361500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1077200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>918400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>834500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>485200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>419400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E52" s="3">
         <v>27900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>58700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>77700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>89900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>43600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2521400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2426000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2310600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2571200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2498700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2449300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2491300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2603500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2621100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2610000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2604300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2645600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2727500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2589800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1995900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1791000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1564800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1233200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1061100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>988300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>528800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>613400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1100</v>
       </c>
       <c r="V57" s="3">
         <v>1100</v>
       </c>
       <c r="W57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,79 +4072,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E59" s="3">
         <v>71400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>105900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>58900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>153200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>80100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>25600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,79 +4220,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1359600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1244300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1090700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1415000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1346200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1306000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1341900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1458400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1513900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1542300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1654900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1574600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1657600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1505100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>914900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>634900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>597300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>446500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>389400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>451000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>76300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1425300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1319000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1198900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1471200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1399000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1351000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1413500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1535500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1570700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1589100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1711600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1627200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1709200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1568600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>976100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>789400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>680900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>478600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>426700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>481300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>109000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-66800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-88700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-98500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-116300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-145800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-145600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-600</v>
       </c>
       <c r="X72" s="3">
         <v>-600</v>
       </c>
       <c r="Y72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1096100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1107000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1111700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1100000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1099700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1098300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1077800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1068000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1050500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1021000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>892800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1018400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1018200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1021200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1019800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1001600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>884000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>754600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>634500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>507000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>506900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>504500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>17200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-104400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-178400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-101800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>69100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>174800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-51400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-102100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-197100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-326800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-216400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-155100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-75900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-339000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-69000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-222300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6282,7 +6516,7 @@
         <v>-22000</v>
       </c>
       <c r="L96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="M96" s="3">
         <v>-21200</v>
@@ -6294,14 +6528,14 @@
         <v>-21200</v>
       </c>
       <c r="P96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E100" s="3">
         <v>131800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>43700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-58500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-138900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-78500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>57900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-106700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>131600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>258600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>169700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>266000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>173900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>57400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>441200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>86600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>74800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6616,137 +6865,143 @@
         <v>700</v>
       </c>
       <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
-      </c>
-      <c r="K101" s="3">
-        <v>200</v>
       </c>
       <c r="L101" s="3">
         <v>200</v>
       </c>
       <c r="M101" s="3">
+        <v>200</v>
+      </c>
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-100</v>
       </c>
       <c r="S101" s="3">
         <v>-100</v>
       </c>
       <c r="T101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-88700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>110700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-42200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-89200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>29100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>61400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-157200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>49500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>102400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-147800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E8" s="3">
         <v>62800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>52400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>46000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>49500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>49800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>51500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>54800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>52700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>50600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E9" s="3">
         <v>27200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>26600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E10" s="3">
         <v>35600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>23300</v>
       </c>
       <c r="I10" s="3">
         <v>23300</v>
       </c>
       <c r="J10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K10" s="3">
         <v>23700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>22600</v>
       </c>
       <c r="P10" s="3">
         <v>22600</v>
       </c>
       <c r="Q10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="R10" s="3">
         <v>22900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E17" s="3">
         <v>28700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E18" s="3">
         <v>34100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>22100</v>
       </c>
       <c r="K18" s="3">
         <v>22100</v>
       </c>
       <c r="L18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="M18" s="3">
         <v>21400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>21200</v>
       </c>
       <c r="Q18" s="3">
         <v>21200</v>
       </c>
       <c r="R18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="S18" s="3">
         <v>21300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>23300</v>
       </c>
       <c r="E20" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>30000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-127000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-29600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,87 +1777,93 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>44400</v>
       </c>
       <c r="E23" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F23" s="3">
         <v>17200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>42400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>31800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-104400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>800</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1826,11 +1871,11 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
@@ -1838,11 +1883,11 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
@@ -1850,17 +1895,17 @@
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1877,8 +1922,8 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>8</v>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>43500</v>
       </c>
       <c r="E26" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F26" s="3">
         <v>17200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-104400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>43500</v>
       </c>
       <c r="E27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F27" s="3">
         <v>17200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-104400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-23300</v>
       </c>
       <c r="E32" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F32" s="3">
         <v>9500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-30000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>127000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>29600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>43500</v>
       </c>
       <c r="E33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F33" s="3">
         <v>17200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-104400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>43500</v>
       </c>
       <c r="E35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F35" s="3">
         <v>17200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-104400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E41" s="3">
         <v>44200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>80800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>117400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>71600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>101000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>80600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>152700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>141000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>122700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>140900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>38500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E43" s="3">
         <v>119600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>49400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2500</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>170500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,31 +3226,34 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -3169,8 +3267,8 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3191,22 +3289,25 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,82 +3380,88 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2421300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2334300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2329900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2182400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2313700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2381700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2339700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2351800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2500200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2479900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2495300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2512600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2550600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2534600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2441300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1844000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1743400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1361500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1077200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>918400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>834500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>485200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>419400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E52" s="3">
         <v>18400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>88300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>77700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>82400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>34700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>89900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>43600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2592400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2521400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2426000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2310600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2571200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2498700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2449300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2491300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2603500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2621100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2610000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2604300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2645600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2727500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2589800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1995900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1791000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1564800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1233200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1061100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>988300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>528800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>613400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1100</v>
       </c>
       <c r="W57" s="3">
         <v>1100</v>
       </c>
       <c r="X57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,82 +4208,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E59" s="3">
         <v>61300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>105900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>58900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>153200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>80100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>33600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>25600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,82 +4362,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1385300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1359600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1244300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1090700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1415000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1346200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1306000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1341900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1458400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1513900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1542300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1654900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1574600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1657600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1505100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>914900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>634900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>597300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>446500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>389400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>451000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>76300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1425300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1319000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1198900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1471200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1399000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1351000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1413500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1535500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1570700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1589100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1711600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1627200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1709200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1568600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>976100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>789400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>680900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>478600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>426700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>481300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>109000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-66800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-88700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-98500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-116300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-145800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-145600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-600</v>
       </c>
       <c r="Y72" s="3">
         <v>-600</v>
       </c>
       <c r="Z72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1116400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1096100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1107000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1111700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1100000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1099700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1098300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1077800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1068000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1050500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1021000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>892800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1018400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1018200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1021200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1019800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1001600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>884000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>754600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>634500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>507000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>506900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>504500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>43500</v>
       </c>
       <c r="E81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F81" s="3">
         <v>17200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-104400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-99700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-178400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-101800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>69100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>174800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-51400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-102100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-197100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-326800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-216400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-155100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-75900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-339000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-69000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-222300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6519,7 +6752,7 @@
         <v>-22000</v>
       </c>
       <c r="M96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="N96" s="3">
         <v>-21200</v>
@@ -6531,14 +6764,14 @@
         <v>-21200</v>
       </c>
       <c r="Q96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="R96" s="3">
         <v>-17800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>88900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>131800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>43700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-58500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-138900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-78500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>57900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-106700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>131600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>258600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>169700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>266000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>173900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>57400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>441200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>86600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>74800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
+        <v>700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
       </c>
       <c r="M101" s="3">
         <v>200</v>
       </c>
       <c r="N101" s="3">
+        <v>200</v>
+      </c>
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-100</v>
       </c>
       <c r="T101" s="3">
         <v>-100</v>
       </c>
       <c r="U101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>66900</v>
       </c>
       <c r="E102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-45900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-88700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>110700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-89200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>29100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>61400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-157200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>49500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-18200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>102400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-147800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,372 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>74700</v>
+      </c>
+      <c r="F8" s="3">
         <v>58400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>62800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>52400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>46000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>51500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>49500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>46500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>49800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>48300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>46800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>47900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>51500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>54800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>52700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>50600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>39900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>33700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>26700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>21400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>17500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>10000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>7800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>4500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F9" s="3">
         <v>35600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>27200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>24000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>22700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>28300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>26200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>23200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>26100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>24500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>23600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>26600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>27600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>32200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>30100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>27800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>17700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>14000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>12400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>7400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>8400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>4900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F10" s="3">
         <v>22800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>35600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>28400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>23300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>23200</v>
       </c>
       <c r="I10" s="3">
         <v>23300</v>
       </c>
       <c r="J10" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K10" s="3">
         <v>23300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="M10" s="3">
         <v>23700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>23800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>23200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>21300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>23900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>22600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>22600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>22900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>22200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>19700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>14300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>14000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>9100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>5100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>6000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>3100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F17" s="3">
         <v>37300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>28700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>25600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>24300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>29500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>27800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>24600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>27700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>25400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>27800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>29000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>33500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>31500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>29400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>18600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>14000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>12800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>7900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F18" s="3">
         <v>21100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>34100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>26800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>21700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>22000</v>
       </c>
       <c r="I18" s="3">
         <v>21700</v>
       </c>
       <c r="J18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>21700</v>
+      </c>
+      <c r="L18" s="3">
         <v>21900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>22100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>21400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>20100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>22500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>21300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>21200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>21200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>21300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>19700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>13900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>13500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>8800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>4800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>5600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1615,93 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>23300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-23000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-9500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>20500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>9600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>17600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>30000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-127000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>18100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-29600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-7300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1777,14 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,138 +1860,150 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F23" s="3">
         <v>44400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>17200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>33700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>22400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>23300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>42400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>31800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>39700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>51500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>21800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-104400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>21400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>18200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>19200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>39300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-9900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>19000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>6200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>11400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>6900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>7200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>100</v>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="3">
+        <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>200</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3">
+        <v>200</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1925,17 +2017,23 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F26" s="3">
         <v>43500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>17200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>33700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>22300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>23300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>42400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>31800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>39500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>51500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>21800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-104400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>21400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>18200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>19200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>39300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-9900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>19000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>6200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>11400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>6900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>7200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>3600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F27" s="3">
         <v>43500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>17200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>33700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>22300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>23300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>42400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>31800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>39500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>51500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>21800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-104400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>21400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>18200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>19200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>39300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-9900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>19000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>6200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>11400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>6900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>7200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>3600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-23300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>23000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>9500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-20500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-9600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-17600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-30000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>127000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-18100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>29600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>7300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F33" s="3">
         <v>43500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>11100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>17200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>33700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>22300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>23300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>42400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>31800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>39500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>51500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>21800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-104400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>21400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>18200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>19200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>39300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-9900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>19000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>6200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>11400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>6900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>7200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>3600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F35" s="3">
         <v>43500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>11100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>17200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>33700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>22300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>23300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>42400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>31800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>39500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>51500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>21800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-104400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>21400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>18200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>19200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>39300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-9900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>19000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>6200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>11400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>6900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>7200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>3600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F41" s="3">
         <v>59800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>44200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>43000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>80800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>117400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>35100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>31600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>37700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>54700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>45000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>76700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>55800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>37300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>71600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>101000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>80600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>152700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>141000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>122700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>140900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>38500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>20400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3255,97 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F43" s="3">
         <v>31800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>119600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>24700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>48700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>18300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>15700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>20900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>13500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>13000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>23000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>29100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>12300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>49400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>10300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>6200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>9100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>6500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2500</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
         <v>170500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,37 +3421,43 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -3270,11 +3468,11 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3292,22 +3490,28 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,85 +3587,97 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2425700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2448500</v>
+      </c>
+      <c r="F47" s="3">
         <v>2421300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2334300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2329900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2182400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2313700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2381700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2339700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2351800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2500200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2479900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2495300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2512600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2550600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2534600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2441300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1844000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1743400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1361500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1077200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>918400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>834500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>485200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>419400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3753,14 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F52" s="3">
         <v>69700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>27900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>36100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>88300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>58700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>58100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>77700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>30200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>82400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>29800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>22600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>34700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>89900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>31800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>17900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>22000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>43600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>5500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2675400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2606400</v>
+      </c>
+      <c r="F54" s="3">
         <v>2592400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2521400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2426000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2310600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2571200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2498700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2449300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2491300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2603500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2621100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2610000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2604300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2645600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2727500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2589800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1995900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1791000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1564800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1233200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1061100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>988300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>528800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>613400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4317,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,85 +4479,97 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>73500</v>
+      </c>
+      <c r="F59" s="3">
         <v>87800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>61300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>71400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>105900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>50100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>49100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>40200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>48700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>51300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>46100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>42900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>53900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>49100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>48200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>59900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>58900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>153200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>80100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>30900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>33600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>25600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>17900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>30400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,85 +4645,97 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1489600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1385300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1359600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1244300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1090700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1415000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1346200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1306000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1341900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1458400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1513900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1542300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1654900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1574600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1657600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1505100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>914900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>634900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>597300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>446500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>389400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>451000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>76300</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1549600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1485200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1476000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1425300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1319000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1198900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1471200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1399000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1351000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1413500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1535500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1570700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1589100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1711600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1627200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1709200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1568600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>976100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>789400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>680900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>478600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>426700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>481300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>21900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>109000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-52100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-72300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-61400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-56700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-68400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-66800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-68200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-88700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-98500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-116300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-145800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-145600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-19400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-16400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-14500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-32700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-17400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-10300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-8000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1125800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1121100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1116400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1096100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1107000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1111700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1100000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1099700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1098300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1077800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1068000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1050500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1021000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>892800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1018400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1018200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1021200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1019800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1001600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>884000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>754600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>634500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>507000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>506900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>504500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F81" s="3">
         <v>43500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>11100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>17200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>33700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>22300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>23300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>42400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>31800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>39500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>51500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>21800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-104400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>21400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>18200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>19200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>39300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-9900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>19000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>6200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>11400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>6900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>7200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>3600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="F89" s="3">
         <v>63100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-99700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-178400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-101800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>69100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>31400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>174800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>35800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>72800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>32200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-51400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>16600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-102100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>39800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-197100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-326800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-216400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-155100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-75900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-339000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-69000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-222300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7067,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +7150,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,16 +7185,18 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22000</v>
+        <v>-24500</v>
       </c>
       <c r="E96" s="3">
-        <v>-22000</v>
+        <v>-23200</v>
       </c>
       <c r="F96" s="3">
         <v>-22000</v>
@@ -6755,10 +7223,10 @@
         <v>-22000</v>
       </c>
       <c r="N96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="O96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="P96" s="3">
         <v>-21200</v>
@@ -6767,17 +7235,17 @@
         <v>-21200</v>
       </c>
       <c r="R96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="T96" s="3">
         <v>-17800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-21100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7513,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>88900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>131800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>14900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>43700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>15100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-58500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-138900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-78500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-52000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-3900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>57900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-106700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>131600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-5200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>258600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>169700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>266000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>173900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>57400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>441200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>86600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>74800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="F102" s="3">
         <v>66900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-45900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-88700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>110700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-25700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>32700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-42200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>21000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>28400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-89200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>29100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>34300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>61400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-157200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>49500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>18200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-18200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>102400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>18100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-147800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>101400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>BCSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E8" s="3">
         <v>75700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58400</v>
       </c>
-      <c r="G8" s="3">
-        <v>62800</v>
-      </c>
       <c r="H8" s="3">
+        <v>58800</v>
+      </c>
+      <c r="I8" s="3">
         <v>52400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>49500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>49800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>47900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>51500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>54800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>52700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>50600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>39900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>33700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>26700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>21400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E9" s="3">
         <v>34000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>26100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>26600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>30100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>17700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E10" s="3">
         <v>41700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22800</v>
       </c>
-      <c r="G10" s="3">
-        <v>35600</v>
-      </c>
       <c r="H10" s="3">
+        <v>31600</v>
+      </c>
+      <c r="I10" s="3">
         <v>28400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>23300</v>
       </c>
       <c r="L10" s="3">
         <v>23300</v>
       </c>
       <c r="M10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="N10" s="3">
         <v>23700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23900</v>
-      </c>
-      <c r="R10" s="3">
-        <v>22600</v>
       </c>
       <c r="S10" s="3">
         <v>22600</v>
       </c>
       <c r="T10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="U10" s="3">
         <v>22900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>22200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>14300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>14000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>9100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E17" s="3">
         <v>35700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>33500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>31500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>29400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E18" s="3">
         <v>40000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21100</v>
       </c>
-      <c r="G18" s="3">
-        <v>34100</v>
-      </c>
       <c r="H18" s="3">
+        <v>30100</v>
+      </c>
+      <c r="I18" s="3">
         <v>26800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>22100</v>
       </c>
       <c r="N18" s="3">
         <v>22100</v>
       </c>
       <c r="O18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="P18" s="3">
         <v>21400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>21200</v>
       </c>
       <c r="T18" s="3">
         <v>21200</v>
       </c>
       <c r="U18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="V18" s="3">
         <v>21300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>5600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,91 +1650,95 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>23300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-23000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-9500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-127000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>18100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-29600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,105 +1906,111 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E23" s="3">
         <v>30300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-104400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>19000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>11400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>7200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
@@ -1972,11 +2018,11 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
@@ -1984,11 +2030,11 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
@@ -1996,17 +2042,17 @@
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -2023,8 +2069,8 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>8</v>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>8</v>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E26" s="3">
         <v>29200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>43500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>33700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>22300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-104400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>19000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E27" s="3">
         <v>29200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>43500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>33700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>22300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-104400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>9700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-23300</v>
       </c>
-      <c r="G32" s="3">
-        <v>23000</v>
-      </c>
       <c r="H32" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I32" s="3">
         <v>9500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>127000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-18100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>29600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E33" s="3">
         <v>29200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>43500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>33700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-104400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>19000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>6900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E35" s="3">
         <v>29200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>43500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>33700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-104400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>19000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>6900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E41" s="3">
         <v>92300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>80800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>117400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>76700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>71600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>101000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>80600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>152700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>141000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>122700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>140900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>38500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>20400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,91 +3351,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E43" s="3">
         <v>109700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>68400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>119600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>49400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2500</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
       <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
         <v>170500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,40 +3523,43 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -3474,8 +3573,8 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3496,22 +3595,25 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,91 +3695,97 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2429500</v>
+      </c>
+      <c r="E47" s="3">
         <v>2425700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2448500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2421300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2334300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2329900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2182400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2313700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2381700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2339700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2351800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2500200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2479900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2495300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2512600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2550600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2534600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2441300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1844000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1743400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1361500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1077200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>918400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>834500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>485200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>419400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>195200</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E52" s="3">
         <v>39500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>69700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>88300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>77700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>82400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>89900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>43600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2566500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2675400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2606400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2592400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2521400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2426000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2310600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2571200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2498700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2449300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2491300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2603500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2621100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2610000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2604300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2645600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2727500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2589800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1995900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1791000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1564800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1233200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1061100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>988300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>528800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>613400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>367700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4449,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>1100</v>
       </c>
       <c r="Z57" s="3">
         <v>1100</v>
       </c>
       <c r="AA57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB57" s="3">
         <v>1400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,91 +4619,97 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E59" s="3">
         <v>53800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>87800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>105900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>42900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>49100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>59900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>58900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>153200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>80100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>33600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>25600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>30400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,91 +4791,97 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1370300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1489600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1408000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1385300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1359600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1244300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1090700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1415000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1346200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1306000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1341900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1458400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1513900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1542300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1654900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1574600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1657600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1505100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>914900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>634900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>597300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>446500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>389400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>451000</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>76300</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1549600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1485200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1476000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1425300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1319000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1198900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1471200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1399000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1351000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1413500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1535500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1570700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1589100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1711600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1627200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1709200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1568600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>976100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>789400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>680900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>478600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>426700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>481300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>109000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-42700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-66800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-88700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-98500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-116300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-145800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-145600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-17400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3400</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-600</v>
       </c>
       <c r="AB72" s="3">
         <v>-600</v>
       </c>
       <c r="AC72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AD72" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1132500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1125800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1121100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1116400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1096100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1107000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1111700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1099700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1098300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1077800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1068000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1050500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1021000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>892800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1018400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1018200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1021200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1019800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1001600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>884000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>754600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>634500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>507000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>506900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>504500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>339500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E81" s="3">
         <v>29200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>43500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>33700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-104400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>19000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>6900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-43000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>63100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-99700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-178400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-101800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>69100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>174800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-51400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-102100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-197100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-326800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-216400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-155100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-75900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-339000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-69000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-222300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7196,10 +7430,10 @@
         <v>-24500</v>
       </c>
       <c r="E96" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-23200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-22000</v>
       </c>
       <c r="G96" s="3">
         <v>-22000</v>
@@ -7229,7 +7463,7 @@
         <v>-22000</v>
       </c>
       <c r="P96" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="Q96" s="3">
         <v>-21200</v>
@@ -7241,14 +7475,14 @@
         <v>-21200</v>
       </c>
       <c r="T96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="U96" s="3">
         <v>-17800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="E100" s="3">
         <v>56500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>88900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>131800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>43700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-58500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-138900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-78500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-52000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>57900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-106700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>131600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>258600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>169700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>266000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>173900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>57400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>441200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>86600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>74800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>168300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>700</v>
       </c>
       <c r="H101" s="3">
         <v>700</v>
       </c>
       <c r="I101" s="3">
+        <v>700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>200</v>
       </c>
       <c r="P101" s="3">
         <v>200</v>
       </c>
       <c r="Q101" s="3">
+        <v>200</v>
+      </c>
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-100</v>
       </c>
       <c r="W101" s="3">
         <v>-100</v>
       </c>
       <c r="X101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E102" s="3">
         <v>47500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>66900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>110700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-42200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-89200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>29100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>34300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>61400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-157200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>49500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>102400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>18100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-147800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>101400</v>
       </c>
     </row>
